--- a/medicine/Mort/Cimetière_royal_d'Haga/Cimetière_royal_d'Haga.xlsx
+++ b/medicine/Mort/Cimetière_royal_d'Haga/Cimetière_royal_d'Haga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_royal_d%27Haga</t>
+          <t>Cimetière_royal_d'Haga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière royal d'Haga (Kungliga begravningsplatsen) est un cimetière qui accueille les membres de la famille royale suédoise depuis 1922. Il est situé dans la commune de Solna, dans le parc Haga qui s'étend sur deux kilomètres le long des rives du lac de Brunnsviken. Le cimetière occupe une petite île du parc appelée Karlsborg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_royal_d%27Haga</t>
+          <t>Cimetière_royal_d'Haga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cimetière a été créé en 1922, lorsque la princesse Margaret de Connaught, première épouse de Gustave VI Adolphe, a été enterrée dans le parc Haga après avoir été inhumée provisoirement pendant deux années dans la cathédrale de Stockholm. La princesse, qui était anglaise de naissance, était connue pour s'intéresser à l'horticulture et avait explicitement exprimé le souhait de ne pas être enterrée à l'intérieur d'une église. L'église de Riddarholmen (Riddarholmskyrkan) qui était le panthéon historique des souverains suédois, commençait d'ailleurs à manquer de place.
 Un petit cap du parc Haga est alors creusé pour former une île du lac de Brunnsviken. L'entrée du cimetière se fait depuis le parc, par un petit pont traversant le canal artificiel. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_royal_d%27Haga</t>
+          <t>Cimetière_royal_d'Haga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le cimetière regroupe actuellement 14 personnalités de la maison Bernadotte. En voici la liste :
 Carl de Suède, prince de Suède, duc de Westergothie (27 février 1861 - 24 octobre 1951) (fils d'Oscar II de Suède)
